--- a/biology/Médecine/Adolphe_Aimé_Lecadre/Adolphe_Aimé_Lecadre.xlsx
+++ b/biology/Médecine/Adolphe_Aimé_Lecadre/Adolphe_Aimé_Lecadre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adolphe_Aim%C3%A9_Lecadre</t>
+          <t>Adolphe_Aimé_Lecadre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe Aimé Lecadre est un chirurgien et médecin français né le 15 mai 1803 à Nantes et mort le 20 novembre 1883 au Havre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adolphe_Aim%C3%A9_Lecadre</t>
+          <t>Adolphe_Aimé_Lecadre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe Aimé Lecadre est le fils de Jacques Jean Lecadre, négociant, et de Marguerite Cramer. Marié avec Sophie Perroty, il est le beau-père d'Ernest Lefèvre, ainsi que le grand-père d'André Cahard et de Pierre Lefèvre-Vacquerie.
 Il suit ses études au collège royal de Nantes et à l'École de médecine de Nantes. Chirurgien embarqué à bord du trois mâts Le Fils de France, de l'armement nantais Dobrée, pour l'Inde de juin 1824 à septembre 1825, il devient l'élève de Laennec à la faculté de médecine de Paris et soutient sa thèse Dissertation sur le siège et la nature de l'hypocondrie en 1827.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adolphe_Aim%C3%A9_Lecadre</t>
+          <t>Adolphe_Aimé_Lecadre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-Quelques considérations sur la rage (1878)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quelques considérations sur la rage (1878)
 La mortalité par la phtisie pulmonaire (1875)
 Étude sur le mouvement de la population et sur les affections épidémiques qui ont régné au Havre durant les années 1871 et 1872 (1873)
 Le choléra-morbus épidémique au Havre et dans l'arrondissement, en 1865 et 1866 (1867)
@@ -568,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adolphe_Aim%C3%A9_Lecadre</t>
+          <t>Adolphe_Aimé_Lecadre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +605,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rue du Docteur-Lecadre, Le Havre</t>
         </is>
